--- a/2025/BOH3+DDS4/Session 1/Entrustment_Counts_for_Cohort_DDS4.xlsx
+++ b/2025/BOH3+DDS4/Session 1/Entrustment_Counts_for_Cohort_DDS4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kunal Patel\D folder\MDS Work\2025\BOH3+DDS4\Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E2238E-727F-4BE6-B6A8-150DE6F593B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCFC6B-528A-46E8-BB23-3F8A3E891634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20820" yWindow="255" windowWidth="18900" windowHeight="10965" xr2:uid="{8F34B966-7AD4-4394-9277-2D07169C4BF4}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{8F34B966-7AD4-4394-9277-2D07169C4BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrustment_Counts_for_Cohort_D" sheetId="1" r:id="rId1"/>
@@ -529,10 +529,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,36 +911,39 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
